--- a/notebooks/Grism_properties.xlsx
+++ b/notebooks/Grism_properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwstnircam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwstnircam/GitHub/pynrc/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ModB_Grism0" sheetId="3" r:id="rId4"/>
     <sheet name="ModB_Grism90" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -835,11 +835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-853702304"/>
-        <c:axId val="-854454144"/>
+        <c:axId val="-835314672"/>
+        <c:axId val="-835310224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-853702304"/>
+        <c:axId val="-835314672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -898,12 +898,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854454144"/>
+        <c:crossAx val="-835310224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-854454144"/>
+        <c:axId val="-835310224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -960,7 +960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-853702304"/>
+        <c:crossAx val="-835314672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1733,11 +1733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-866264928"/>
-        <c:axId val="-871113424"/>
+        <c:axId val="-849433744"/>
+        <c:axId val="-849555616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-866264928"/>
+        <c:axId val="-849433744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -1796,12 +1796,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-871113424"/>
+        <c:crossAx val="-849555616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-871113424"/>
+        <c:axId val="-849555616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="800.0"/>
@@ -1858,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-866264928"/>
+        <c:crossAx val="-849433744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25.0"/>
@@ -2632,11 +2632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-854234848"/>
-        <c:axId val="-854410560"/>
+        <c:axId val="-623471232"/>
+        <c:axId val="-861846016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-854234848"/>
+        <c:axId val="-623471232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -2695,12 +2695,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854410560"/>
+        <c:crossAx val="-861846016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-854410560"/>
+        <c:axId val="-861846016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="800.0"/>
@@ -2757,7 +2757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854234848"/>
+        <c:crossAx val="-623471232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25.0"/>
@@ -3531,11 +3531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-514411888"/>
-        <c:axId val="-514626272"/>
+        <c:axId val="-514104992"/>
+        <c:axId val="-861059392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-514411888"/>
+        <c:axId val="-514104992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -3594,12 +3594,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-514626272"/>
+        <c:crossAx val="-861059392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-514626272"/>
+        <c:axId val="-861059392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -3656,7 +3656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-514411888"/>
+        <c:crossAx val="-514104992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4429,11 +4429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-514634608"/>
-        <c:axId val="-871738368"/>
+        <c:axId val="-500132320"/>
+        <c:axId val="-870623968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-514634608"/>
+        <c:axId val="-500132320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -4492,12 +4492,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-871738368"/>
+        <c:crossAx val="-870623968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-871738368"/>
+        <c:axId val="-870623968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="800.0"/>
@@ -4554,7 +4554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-514634608"/>
+        <c:crossAx val="-500132320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25.0"/>
@@ -5328,11 +5328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-924519952"/>
-        <c:axId val="-453200528"/>
+        <c:axId val="-924292464"/>
+        <c:axId val="-849878704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-924519952"/>
+        <c:axId val="-924292464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -5391,12 +5391,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-453200528"/>
+        <c:crossAx val="-849878704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-453200528"/>
+        <c:axId val="-849878704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -5453,7 +5453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-924519952"/>
+        <c:crossAx val="-924292464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6226,11 +6226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-924805184"/>
-        <c:axId val="-866181184"/>
+        <c:axId val="-867979008"/>
+        <c:axId val="-871749200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-924805184"/>
+        <c:axId val="-867979008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -6289,12 +6289,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-866181184"/>
+        <c:crossAx val="-871749200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-866181184"/>
+        <c:axId val="-871749200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="800.0"/>
@@ -6315,6 +6315,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -6351,7 +6352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-924805184"/>
+        <c:crossAx val="-867979008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25.0"/>
@@ -7125,11 +7126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-872126480"/>
-        <c:axId val="-870620336"/>
+        <c:axId val="-868019136"/>
+        <c:axId val="-514100816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-872126480"/>
+        <c:axId val="-868019136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -7188,12 +7189,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-870620336"/>
+        <c:crossAx val="-514100816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-870620336"/>
+        <c:axId val="-514100816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -7250,7 +7251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872126480"/>
+        <c:crossAx val="-868019136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8023,11 +8024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-867101008"/>
-        <c:axId val="-867096576"/>
+        <c:axId val="-491767536"/>
+        <c:axId val="-861526176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-867101008"/>
+        <c:axId val="-491767536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -8086,12 +8087,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-867096576"/>
+        <c:crossAx val="-861526176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-867096576"/>
+        <c:axId val="-861526176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="800.0"/>
@@ -8149,7 +8150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-867101008"/>
+        <c:crossAx val="-491767536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25.0"/>
@@ -8923,11 +8924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-923739616"/>
-        <c:axId val="-923735104"/>
+        <c:axId val="-868043616"/>
+        <c:axId val="-867117648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-923739616"/>
+        <c:axId val="-868043616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -8986,12 +8987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-923735104"/>
+        <c:crossAx val="-867117648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-923735104"/>
+        <c:axId val="-867117648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -9048,7 +9049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-923739616"/>
+        <c:crossAx val="-868043616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
